--- a/docs/Stackdriver Metrics.xlsx
+++ b/docs/Stackdriver Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gudzenkov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gudzenkov/code/GCP/demo/stackdriver-demo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E46DAF-2208-1841-A5F3-8F37CC4DF158}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3783F93-D59E-804B-917F-98188D031050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -3042,227 +3042,227 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3582,53 +3582,54 @@
   </sheetPr>
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.1640625" style="152" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="134" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="43" style="148" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="130" customWidth="1"/>
     <col min="4" max="4" width="11.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="104.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14">
       <c r="A1" s="1"/>
-      <c r="B1" s="135"/>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="77"/>
+      <c r="D1" s="151"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="77"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="151"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="28">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="103" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
@@ -3650,13 +3651,13 @@
     </row>
     <row r="3" spans="1:10" ht="14">
       <c r="A3" s="7"/>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3670,13 +3671,13 @@
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
@@ -3710,26 +3711,26 @@
       <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="115">
         <v>0.8</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="106">
         <v>300</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="19" t="s">
@@ -3740,13 +3741,13 @@
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
@@ -3820,25 +3821,25 @@
       <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="120">
+      <c r="C10" s="116">
         <v>0.05</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="106">
         <v>300</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="78" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -3912,25 +3913,25 @@
       <c r="A13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="120">
+      <c r="C13" s="116">
         <v>0.05</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="106">
         <v>300</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="78" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="17" t="s">
@@ -3944,13 +3945,13 @@
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
@@ -4064,13 +4065,13 @@
       <c r="A20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="115">
         <v>10</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="106">
         <v>300</v>
       </c>
       <c r="E20" s="17"/>
@@ -4088,10 +4089,10 @@
       <c r="A21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="25"/>
@@ -4106,13 +4107,13 @@
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="108"/>
+      <c r="D22" s="105"/>
       <c r="E22" s="11" t="s">
         <v>13</v>
       </c>
@@ -4126,24 +4127,24 @@
       <c r="A23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="119">
+      <c r="C23" s="115">
         <v>1.5</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="106">
         <v>300</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="83" t="s">
+      <c r="F23" s="77"/>
+      <c r="G23" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="19" t="s">
@@ -4174,24 +4175,24 @@
       <c r="A25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="115">
         <v>2</v>
       </c>
-      <c r="D25" s="109">
+      <c r="D25" s="106">
         <v>300</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="83" t="s">
+      <c r="F25" s="77"/>
+      <c r="G25" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="19" t="s">
@@ -4242,13 +4243,13 @@
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="108"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="11" t="s">
         <v>13</v>
       </c>
@@ -4282,13 +4283,13 @@
       <c r="A30" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="115">
         <v>1</v>
       </c>
-      <c r="D30" s="109">
+      <c r="D30" s="106">
         <v>300</v>
       </c>
       <c r="E30" s="17"/>
@@ -4352,13 +4353,13 @@
       <c r="A33" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="119">
+      <c r="C33" s="115">
         <v>10</v>
       </c>
-      <c r="D33" s="109">
+      <c r="D33" s="106">
         <v>300</v>
       </c>
       <c r="E33" s="17"/>
@@ -4380,13 +4381,13 @@
       <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="119">
+      <c r="C34" s="115">
         <v>70</v>
       </c>
-      <c r="D34" s="109">
+      <c r="D34" s="106">
         <v>300</v>
       </c>
       <c r="E34" s="17"/>
@@ -4406,13 +4407,13 @@
       <c r="A35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="119">
+      <c r="C35" s="115">
         <v>60</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="106" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="17"/>
@@ -4436,13 +4437,13 @@
       <c r="A36" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="119">
+      <c r="C36" s="115">
         <v>70</v>
       </c>
-      <c r="D36" s="109">
+      <c r="D36" s="106">
         <v>300</v>
       </c>
       <c r="E36" s="17"/>
@@ -4502,13 +4503,13 @@
       <c r="A39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="118" t="s">
+      <c r="C39" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="11" t="s">
         <v>13</v>
       </c>
@@ -4522,13 +4523,13 @@
       <c r="A40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="119">
+      <c r="C40" s="115">
         <v>80</v>
       </c>
-      <c r="D40" s="109">
+      <c r="D40" s="106">
         <v>300</v>
       </c>
       <c r="E40" s="17"/>
@@ -4548,13 +4549,13 @@
       <c r="A41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="108"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="11" t="s">
         <v>13</v>
       </c>
@@ -4708,10 +4709,10 @@
       <c r="A49" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="C49" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="26"/>
@@ -4728,13 +4729,13 @@
       <c r="A50" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="139" t="s">
+      <c r="B50" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="122" t="s">
+      <c r="C50" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="109">
+      <c r="D50" s="106">
         <v>300</v>
       </c>
       <c r="E50" s="31"/>
@@ -4748,7 +4749,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28" hidden="1">
+    <row r="51" spans="1:10" ht="14" hidden="1">
       <c r="A51" s="35"/>
       <c r="B51" s="35" t="s">
         <v>116</v>
@@ -4768,7 +4769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28" hidden="1">
+    <row r="52" spans="1:10" ht="14" hidden="1">
       <c r="A52" s="35"/>
       <c r="B52" s="35" t="s">
         <v>118</v>
@@ -4792,31 +4793,31 @@
       <c r="A53" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="139" t="s">
+      <c r="B53" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="119">
+      <c r="C53" s="115">
         <v>0.8</v>
       </c>
-      <c r="D53" s="109">
+      <c r="D53" s="106">
         <v>300</v>
       </c>
       <c r="E53" s="36"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="80" t="s">
+      <c r="F53" s="81"/>
+      <c r="G53" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="85" t="s">
+      <c r="H53" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="80" t="s">
+      <c r="I53" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="28" hidden="1">
+    <row r="54" spans="1:10" ht="14" hidden="1">
       <c r="A54" s="35"/>
       <c r="B54" s="35" t="s">
         <v>123</v>
@@ -4836,7 +4837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="28" hidden="1">
+    <row r="55" spans="1:10" ht="14" hidden="1">
       <c r="A55" s="35"/>
       <c r="B55" s="35" t="s">
         <v>125</v>
@@ -4856,7 +4857,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="28" hidden="1">
+    <row r="56" spans="1:10" ht="14" hidden="1">
       <c r="A56" s="35"/>
       <c r="B56" s="35" t="s">
         <v>127</v>
@@ -4880,31 +4881,31 @@
       <c r="A57" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="119">
+      <c r="C57" s="115">
         <v>0.7</v>
       </c>
-      <c r="D57" s="109">
+      <c r="D57" s="106">
         <v>300</v>
       </c>
       <c r="E57" s="36"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="80" t="s">
+      <c r="F57" s="81"/>
+      <c r="G57" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H57" s="85" t="s">
+      <c r="H57" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="80" t="s">
+      <c r="I57" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="28" hidden="1">
+    <row r="58" spans="1:10" ht="14" hidden="1">
       <c r="A58" s="35"/>
       <c r="B58" s="35" t="s">
         <v>132</v>
@@ -4924,7 +4925,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="28" hidden="1">
+    <row r="59" spans="1:10" ht="14" hidden="1">
       <c r="A59" s="35"/>
       <c r="B59" s="35" t="s">
         <v>134</v>
@@ -4944,7 +4945,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="28" hidden="1">
+    <row r="60" spans="1:10" ht="14" hidden="1">
       <c r="A60" s="35"/>
       <c r="B60" s="35" t="s">
         <v>136</v>
@@ -4968,24 +4969,24 @@
       <c r="A61" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="141" t="s">
+      <c r="B61" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="119">
+      <c r="C61" s="115">
         <v>0.8</v>
       </c>
-      <c r="D61" s="109">
+      <c r="D61" s="106">
         <v>300</v>
       </c>
       <c r="E61" s="36"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="80" t="s">
+      <c r="F61" s="81"/>
+      <c r="G61" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="85" t="s">
+      <c r="H61" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="80" t="s">
+      <c r="I61" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J61" s="20" t="s">
@@ -4993,27 +4994,27 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="28">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="142" t="s">
+      <c r="B62" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="123">
+      <c r="C62" s="119">
         <v>400</v>
       </c>
-      <c r="D62" s="109" t="s">
+      <c r="D62" s="106" t="s">
         <v>16</v>
       </c>
       <c r="E62" s="36"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="80" t="s">
+      <c r="F62" s="83"/>
+      <c r="G62" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="I62" s="80" t="s">
+      <c r="I62" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="35" t="s">
@@ -5021,27 +5022,27 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="28">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="142" t="s">
+      <c r="B63" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="123">
+      <c r="C63" s="119">
         <v>150</v>
       </c>
-      <c r="D63" s="109" t="s">
+      <c r="D63" s="106" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="36"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="80" t="s">
+      <c r="F63" s="83"/>
+      <c r="G63" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="87" t="s">
+      <c r="H63" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="80" t="s">
+      <c r="I63" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="35" t="s">
@@ -5049,46 +5050,46 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="39">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="142" t="s">
+      <c r="B64" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="124">
+      <c r="C64" s="120">
         <v>60</v>
       </c>
-      <c r="D64" s="109">
+      <c r="D64" s="106">
         <v>300</v>
       </c>
       <c r="E64" s="36"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="80" t="s">
+      <c r="F64" s="81"/>
+      <c r="G64" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H64" s="85" t="s">
+      <c r="H64" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="80" t="s">
+      <c r="I64" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="42">
-      <c r="A65" s="89"/>
-      <c r="B65" s="142" t="s">
+    <row r="65" spans="1:10" ht="28">
+      <c r="A65" s="86"/>
+      <c r="B65" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="122" t="s">
+      <c r="C65" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="109">
+      <c r="D65" s="106">
         <v>300</v>
       </c>
       <c r="E65" s="36"/>
-      <c r="F65" s="91" t="s">
+      <c r="F65" s="88" t="s">
         <v>150</v>
       </c>
       <c r="G65" s="36"/>
@@ -5098,7 +5099,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="42" hidden="1">
+    <row r="66" spans="1:10" ht="28" hidden="1">
       <c r="A66" s="35"/>
       <c r="B66" s="20" t="s">
         <v>152</v>
@@ -5119,34 +5120,34 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="28">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="123" t="s">
+      <c r="C67" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="109">
+      <c r="D67" s="106">
         <v>300</v>
       </c>
       <c r="E67" s="36"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="80" t="s">
+      <c r="F67" s="81"/>
+      <c r="G67" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="85" t="s">
+      <c r="H67" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="80" t="s">
+      <c r="I67" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="28" hidden="1">
+    <row r="68" spans="1:10" ht="14" hidden="1">
       <c r="A68" s="35"/>
       <c r="B68" s="35" t="s">
         <v>158</v>
@@ -5187,27 +5188,27 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="28">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="143" t="s">
+      <c r="B70" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="123" t="s">
+      <c r="C70" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="109">
+      <c r="D70" s="106">
         <v>300</v>
       </c>
       <c r="E70" s="36"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="80" t="s">
+      <c r="F70" s="81"/>
+      <c r="G70" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="H70" s="85" t="s">
+      <c r="H70" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="80" t="s">
+      <c r="I70" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J70" s="35" t="s">
@@ -5215,51 +5216,51 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="42">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="142" t="s">
+      <c r="B71" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="125">
+      <c r="C71" s="121">
         <v>100000000</v>
       </c>
-      <c r="D71" s="109">
+      <c r="D71" s="106">
         <v>300</v>
       </c>
       <c r="E71" s="40"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="87" t="s">
+      <c r="F71" s="77"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="88"/>
+      <c r="I71" s="85"/>
       <c r="J71" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="28">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="142" t="s">
+      <c r="B72" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="123">
+      <c r="C72" s="119">
         <v>200</v>
       </c>
-      <c r="D72" s="109" t="s">
+      <c r="D72" s="106" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="36"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="80" t="s">
+      <c r="F72" s="83"/>
+      <c r="G72" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="H72" s="87" t="s">
+      <c r="H72" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="I72" s="80" t="s">
+      <c r="I72" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J72" s="35" t="s">
@@ -5267,18 +5268,18 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="56">
-      <c r="A73" s="89"/>
-      <c r="B73" s="142" t="s">
+      <c r="A73" s="86"/>
+      <c r="B73" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="122" t="s">
+      <c r="C73" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="109">
+      <c r="D73" s="106">
         <v>300</v>
       </c>
       <c r="E73" s="31"/>
-      <c r="F73" s="91" t="s">
+      <c r="F73" s="88" t="s">
         <v>170</v>
       </c>
       <c r="G73" s="31"/>
@@ -5332,10 +5333,10 @@
       <c r="A76" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="140" t="s">
+      <c r="B76" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="121" t="s">
+      <c r="C76" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="26"/>
@@ -5352,13 +5353,13 @@
       <c r="A77" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="119">
+      <c r="C77" s="115">
         <v>5</v>
       </c>
-      <c r="D77" s="109">
+      <c r="D77" s="106">
         <v>300</v>
       </c>
       <c r="E77" s="40"/>
@@ -5376,13 +5377,13 @@
       <c r="A78" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="119">
+      <c r="C78" s="115">
         <v>200</v>
       </c>
-      <c r="D78" s="109">
+      <c r="D78" s="106">
         <v>300</v>
       </c>
       <c r="E78" s="40"/>
@@ -5540,13 +5541,13 @@
       <c r="A86" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="144" t="s">
+      <c r="B86" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="C86" s="126">
+      <c r="C86" s="122">
         <v>100000000</v>
       </c>
-      <c r="D86" s="109">
+      <c r="D86" s="106">
         <v>300</v>
       </c>
       <c r="E86" s="40"/>
@@ -5684,13 +5685,13 @@
       <c r="A93" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="144" t="s">
+      <c r="B93" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="127">
+      <c r="C93" s="123">
         <v>10</v>
       </c>
-      <c r="D93" s="109">
+      <c r="D93" s="106">
         <v>300</v>
       </c>
       <c r="E93" s="40"/>
@@ -5708,13 +5709,13 @@
       <c r="A94" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B94" s="144" t="s">
+      <c r="B94" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="119">
+      <c r="C94" s="115">
         <v>0.8</v>
       </c>
-      <c r="D94" s="109">
+      <c r="D94" s="106">
         <v>300</v>
       </c>
       <c r="E94" s="40"/>
@@ -5832,13 +5833,13 @@
       <c r="A100" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="144" t="s">
+      <c r="B100" s="140" t="s">
         <v>226</v>
       </c>
-      <c r="C100" s="119">
+      <c r="C100" s="115">
         <v>0.7</v>
       </c>
-      <c r="D100" s="109">
+      <c r="D100" s="106">
         <v>300</v>
       </c>
       <c r="E100" s="40"/>
@@ -5876,13 +5877,13 @@
       <c r="A102" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B102" s="144" t="s">
+      <c r="B102" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="C102" s="119">
+      <c r="C102" s="115">
         <v>0.7</v>
       </c>
-      <c r="D102" s="109">
+      <c r="D102" s="106">
         <v>300</v>
       </c>
       <c r="E102" s="40"/>
@@ -5960,13 +5961,13 @@
       <c r="A106" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B106" s="144" t="s">
+      <c r="B106" s="140" t="s">
         <v>238</v>
       </c>
-      <c r="C106" s="127">
+      <c r="C106" s="123">
         <v>15</v>
       </c>
-      <c r="D106" s="109">
+      <c r="D106" s="106">
         <v>300</v>
       </c>
       <c r="E106" s="40"/>
@@ -5984,10 +5985,10 @@
       <c r="A107" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="140" t="s">
+      <c r="B107" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="C107" s="121" t="s">
+      <c r="C107" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="26"/>
@@ -6004,13 +6005,13 @@
       <c r="A108" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="145" t="s">
+      <c r="B108" s="141" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="119" t="s">
+      <c r="C108" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="110"/>
+      <c r="D108" s="107"/>
       <c r="E108" s="45" t="s">
         <v>13</v>
       </c>
@@ -6020,7 +6021,7 @@
       <c r="I108" s="46"/>
       <c r="J108" s="48"/>
     </row>
-    <row r="109" spans="1:10" ht="28" hidden="1">
+    <row r="109" spans="1:10" ht="14" hidden="1">
       <c r="A109" s="35"/>
       <c r="B109" s="35" t="s">
         <v>242</v>
@@ -6044,13 +6045,13 @@
       <c r="A110" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B110" s="141" t="s">
+      <c r="B110" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="128">
+      <c r="C110" s="124">
         <v>0.7</v>
       </c>
-      <c r="D110" s="109">
+      <c r="D110" s="106">
         <v>300</v>
       </c>
       <c r="E110" s="52"/>
@@ -6064,7 +6065,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="28" hidden="1">
+    <row r="111" spans="1:10" ht="14" hidden="1">
       <c r="A111" s="35"/>
       <c r="B111" s="35" t="s">
         <v>247</v>
@@ -6084,7 +6085,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="28" hidden="1">
+    <row r="112" spans="1:10" ht="14" hidden="1">
       <c r="A112" s="35"/>
       <c r="B112" s="35" t="s">
         <v>249</v>
@@ -6104,7 +6105,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="42" hidden="1">
+    <row r="113" spans="1:10" ht="28" hidden="1">
       <c r="A113" s="20" t="s">
         <v>251</v>
       </c>
@@ -6176,13 +6177,13 @@
       <c r="A116" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B116" s="146" t="s">
+      <c r="B116" s="142" t="s">
         <v>608</v>
       </c>
-      <c r="C116" s="128" t="s">
+      <c r="C116" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="D116" s="109">
+      <c r="D116" s="106">
         <v>300</v>
       </c>
       <c r="E116" s="17" t="s">
@@ -6202,13 +6203,13 @@
       <c r="A117" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="141" t="s">
+      <c r="B117" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="C117" s="128">
+      <c r="C117" s="124">
         <v>0.7</v>
       </c>
-      <c r="D117" s="109">
+      <c r="D117" s="106">
         <v>300</v>
       </c>
       <c r="E117" s="50"/>
@@ -6222,7 +6223,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="28" hidden="1">
+    <row r="118" spans="1:10" ht="14" hidden="1">
       <c r="A118" s="35"/>
       <c r="B118" s="35" t="s">
         <v>265</v>
@@ -6306,13 +6307,13 @@
       <c r="A122" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="145" t="s">
+      <c r="B122" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="C122" s="119" t="s">
+      <c r="C122" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="110"/>
+      <c r="D122" s="107"/>
       <c r="E122" s="45" t="s">
         <v>13</v>
       </c>
@@ -6322,7 +6323,7 @@
       <c r="I122" s="46"/>
       <c r="J122" s="48"/>
     </row>
-    <row r="123" spans="1:10" ht="28" hidden="1">
+    <row r="123" spans="1:10" ht="14" hidden="1">
       <c r="A123" s="35"/>
       <c r="B123" s="35" t="s">
         <v>274</v>
@@ -6342,7 +6343,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="28" hidden="1">
+    <row r="124" spans="1:10" ht="14" hidden="1">
       <c r="A124" s="35"/>
       <c r="B124" s="35" t="s">
         <v>276</v>
@@ -6366,13 +6367,13 @@
       <c r="A125" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="B125" s="141" t="s">
+      <c r="B125" s="137" t="s">
         <v>279</v>
       </c>
-      <c r="C125" s="128">
+      <c r="C125" s="124">
         <v>0.8</v>
       </c>
-      <c r="D125" s="109">
+      <c r="D125" s="106">
         <v>300</v>
       </c>
       <c r="E125" s="50"/>
@@ -6394,13 +6395,13 @@
       <c r="A126" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="145" t="s">
+      <c r="B126" s="141" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="119" t="s">
+      <c r="C126" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D126" s="110"/>
+      <c r="D126" s="107"/>
       <c r="E126" s="45" t="s">
         <v>13</v>
       </c>
@@ -6410,7 +6411,7 @@
       <c r="I126" s="46"/>
       <c r="J126" s="48"/>
     </row>
-    <row r="127" spans="1:10" ht="28" hidden="1">
+    <row r="127" spans="1:10" ht="14" hidden="1">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>283</v>
@@ -6510,7 +6511,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="28" hidden="1">
+    <row r="132" spans="1:10" ht="14" hidden="1">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>293</v>
@@ -6570,7 +6571,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="28" hidden="1">
+    <row r="135" spans="1:10" ht="14" hidden="1">
       <c r="A135" s="35"/>
       <c r="B135" s="35" t="s">
         <v>299</v>
@@ -6594,13 +6595,13 @@
       <c r="A136" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="145" t="s">
+      <c r="B136" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="C136" s="119" t="s">
+      <c r="C136" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="110"/>
+      <c r="D136" s="107"/>
       <c r="E136" s="45" t="s">
         <v>13</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="28" hidden="1">
+    <row r="138" spans="1:10" ht="14" hidden="1">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>304</v>
@@ -6654,24 +6655,24 @@
       <c r="A139" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="B139" s="141" t="s">
+      <c r="B139" s="137" t="s">
         <v>307</v>
       </c>
-      <c r="C139" s="128">
+      <c r="C139" s="124">
         <v>0.8</v>
       </c>
-      <c r="D139" s="109">
+      <c r="D139" s="106">
         <v>300</v>
       </c>
       <c r="E139" s="52"/>
       <c r="F139" s="50"/>
-      <c r="G139" s="92" t="s">
+      <c r="G139" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H139" s="93" t="s">
+      <c r="H139" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="I139" s="92" t="s">
+      <c r="I139" s="89" t="s">
         <v>21</v>
       </c>
       <c r="J139" s="35" t="s">
@@ -6702,13 +6703,13 @@
       <c r="A141" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="B141" s="139" t="s">
+      <c r="B141" s="135" t="s">
         <v>312</v>
       </c>
-      <c r="C141" s="129" t="s">
+      <c r="C141" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="D141" s="109">
+      <c r="D141" s="106">
         <v>300</v>
       </c>
       <c r="E141" s="54" t="s">
@@ -6717,13 +6718,13 @@
       <c r="F141" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="G141" s="92" t="s">
+      <c r="G141" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H141" s="94" t="s">
+      <c r="H141" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I141" s="92" t="s">
+      <c r="I141" s="89" t="s">
         <v>21</v>
       </c>
       <c r="J141" s="35" t="s">
@@ -6734,13 +6735,13 @@
       <c r="A142" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="B142" s="147" t="s">
+      <c r="B142" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="C142" s="130">
+      <c r="C142" s="126">
         <v>0.8</v>
       </c>
-      <c r="D142" s="109">
+      <c r="D142" s="106">
         <v>300</v>
       </c>
       <c r="E142" s="17" t="s">
@@ -6749,14 +6750,14 @@
       <c r="F142" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="G142" s="92"/>
-      <c r="H142" s="94"/>
-      <c r="I142" s="92"/>
+      <c r="G142" s="89"/>
+      <c r="H142" s="91"/>
+      <c r="I142" s="89"/>
       <c r="J142" s="20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="42" hidden="1">
+    <row r="143" spans="1:10" ht="28" hidden="1">
       <c r="A143" s="35" t="s">
         <v>316</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="28" hidden="1">
+    <row r="146" spans="1:10" ht="14" hidden="1">
       <c r="A146" s="35"/>
       <c r="B146" s="35" t="s">
         <v>326</v>
@@ -6848,31 +6849,31 @@
       <c r="A147" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="B147" s="141" t="s">
+      <c r="B147" s="137" t="s">
         <v>328</v>
       </c>
-      <c r="C147" s="130">
+      <c r="C147" s="126">
         <v>0.8</v>
       </c>
-      <c r="D147" s="109">
+      <c r="D147" s="106">
         <v>300</v>
       </c>
       <c r="E147" s="52"/>
       <c r="F147" s="50"/>
-      <c r="G147" s="92" t="s">
+      <c r="G147" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H147" s="94" t="s">
+      <c r="H147" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I147" s="92" t="s">
+      <c r="I147" s="89" t="s">
         <v>21</v>
       </c>
       <c r="J147" s="35" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="28" hidden="1">
+    <row r="148" spans="1:10" ht="14" hidden="1">
       <c r="A148" s="35"/>
       <c r="B148" s="35" t="s">
         <v>330</v>
@@ -6896,13 +6897,13 @@
       <c r="A149" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="B149" s="141" t="s">
+      <c r="B149" s="137" t="s">
         <v>332</v>
       </c>
-      <c r="C149" s="129" t="s">
+      <c r="C149" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="D149" s="109">
+      <c r="D149" s="106">
         <v>300</v>
       </c>
       <c r="E149" s="54" t="s">
@@ -6911,13 +6912,13 @@
       <c r="F149" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="G149" s="92" t="s">
+      <c r="G149" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="H149" s="94" t="s">
+      <c r="H149" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I149" s="92" t="s">
+      <c r="I149" s="89" t="s">
         <v>21</v>
       </c>
       <c r="J149" s="35" t="s">
@@ -6948,13 +6949,13 @@
       <c r="A151" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="B151" s="141" t="s">
+      <c r="B151" s="137" t="s">
         <v>337</v>
       </c>
-      <c r="C151" s="128">
+      <c r="C151" s="124">
         <v>5</v>
       </c>
-      <c r="D151" s="109">
+      <c r="D151" s="106">
         <v>300</v>
       </c>
       <c r="E151" s="50"/>
@@ -6968,7 +6969,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="28" hidden="1">
+    <row r="152" spans="1:10" ht="14" hidden="1">
       <c r="A152" s="35"/>
       <c r="B152" s="35" t="s">
         <v>339</v>
@@ -6992,13 +6993,13 @@
       <c r="A153" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="140" t="s">
+      <c r="B153" s="136" t="s">
         <v>341</v>
       </c>
-      <c r="C153" s="121" t="s">
+      <c r="C153" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D153" s="111"/>
+      <c r="D153" s="108"/>
       <c r="E153" s="28" t="s">
         <v>13</v>
       </c>
@@ -7088,16 +7089,16 @@
       <c r="A157" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="B157" s="148" t="s">
+      <c r="B157" s="144" t="s">
         <v>352</v>
       </c>
-      <c r="C157" s="119" t="s">
+      <c r="C157" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D157" s="112">
+      <c r="D157" s="109">
         <v>300</v>
       </c>
-      <c r="E157" s="80"/>
+      <c r="E157" s="77"/>
       <c r="F157" s="40" t="s">
         <v>353</v>
       </c>
@@ -7112,16 +7113,16 @@
       <c r="A158" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="B158" s="148" t="s">
+      <c r="B158" s="144" t="s">
         <v>355</v>
       </c>
-      <c r="C158" s="119" t="s">
+      <c r="C158" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D158" s="112">
+      <c r="D158" s="109">
         <v>300</v>
       </c>
-      <c r="E158" s="80"/>
+      <c r="E158" s="77"/>
       <c r="F158" s="40" t="s">
         <v>356</v>
       </c>
@@ -7210,13 +7211,13 @@
       <c r="A162" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="B162" s="144" t="s">
+      <c r="B162" s="140" t="s">
         <v>366</v>
       </c>
-      <c r="C162" s="120">
+      <c r="C162" s="116">
         <v>0.05</v>
       </c>
-      <c r="D162" s="109">
+      <c r="D162" s="106">
         <v>300</v>
       </c>
       <c r="E162" s="17" t="s">
@@ -7238,13 +7239,13 @@
       <c r="A163" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="B163" s="144" t="s">
+      <c r="B163" s="140" t="s">
         <v>369</v>
       </c>
-      <c r="C163" s="119">
+      <c r="C163" s="115">
         <v>200</v>
       </c>
-      <c r="D163" s="109">
+      <c r="D163" s="106">
         <v>300</v>
       </c>
       <c r="E163" s="40"/>
@@ -7266,13 +7267,13 @@
       <c r="A164" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="140" t="s">
+      <c r="B164" s="136" t="s">
         <v>373</v>
       </c>
-      <c r="C164" s="121" t="s">
+      <c r="C164" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D164" s="113"/>
+      <c r="D164" s="110"/>
       <c r="E164" s="28" t="s">
         <v>13</v>
       </c>
@@ -7288,26 +7289,26 @@
       <c r="A165" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B165" s="146" t="s">
+      <c r="B165" s="142" t="s">
         <v>376</v>
       </c>
-      <c r="C165" s="153">
+      <c r="C165" s="149">
         <v>5000</v>
       </c>
-      <c r="D165" s="109">
+      <c r="D165" s="106">
         <v>300</v>
       </c>
-      <c r="E165" s="80"/>
-      <c r="F165" s="80" t="s">
+      <c r="E165" s="77"/>
+      <c r="F165" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="G165" s="80" t="s">
+      <c r="G165" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="H165" s="81" t="s">
+      <c r="H165" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I165" s="95" t="s">
+      <c r="I165" s="92" t="s">
         <v>379</v>
       </c>
       <c r="J165" s="19" t="s">
@@ -7316,16 +7317,16 @@
     </row>
     <row r="166" spans="1:10" ht="98" hidden="1">
       <c r="A166" s="62"/>
-      <c r="B166" s="146" t="s">
+      <c r="B166" s="142" t="s">
         <v>381</v>
       </c>
-      <c r="C166" s="131"/>
-      <c r="D166" s="109"/>
-      <c r="E166" s="80"/>
-      <c r="F166" s="80"/>
-      <c r="G166" s="80"/>
-      <c r="H166" s="80"/>
-      <c r="I166" s="80"/>
+      <c r="C166" s="127"/>
+      <c r="D166" s="106"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="77"/>
+      <c r="H166" s="77"/>
+      <c r="I166" s="77"/>
       <c r="J166" s="19" t="s">
         <v>382</v>
       </c>
@@ -7334,26 +7335,26 @@
       <c r="A167" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B167" s="146" t="s">
+      <c r="B167" s="142" t="s">
         <v>383</v>
       </c>
-      <c r="C167" s="153">
+      <c r="C167" s="149">
         <v>300</v>
       </c>
-      <c r="D167" s="109">
+      <c r="D167" s="106">
         <v>300</v>
       </c>
-      <c r="E167" s="80"/>
-      <c r="F167" s="80" t="s">
+      <c r="E167" s="77"/>
+      <c r="F167" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="G167" s="80" t="s">
+      <c r="G167" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="H167" s="81" t="s">
+      <c r="H167" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="I167" s="80" t="s">
+      <c r="I167" s="77" t="s">
         <v>21</v>
       </c>
       <c r="J167" s="19" t="s">
@@ -7362,16 +7363,16 @@
     </row>
     <row r="168" spans="1:10" ht="98" hidden="1">
       <c r="A168" s="62"/>
-      <c r="B168" s="146" t="s">
+      <c r="B168" s="142" t="s">
         <v>386</v>
       </c>
-      <c r="C168" s="131"/>
-      <c r="D168" s="109"/>
-      <c r="E168" s="80"/>
-      <c r="F168" s="80"/>
-      <c r="G168" s="80"/>
-      <c r="H168" s="80"/>
-      <c r="I168" s="80"/>
+      <c r="C168" s="127"/>
+      <c r="D168" s="106"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="77"/>
+      <c r="G168" s="77"/>
+      <c r="H168" s="77"/>
+      <c r="I168" s="77"/>
       <c r="J168" s="19" t="s">
         <v>387</v>
       </c>
@@ -7380,26 +7381,26 @@
       <c r="A169" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B169" s="146" t="s">
+      <c r="B169" s="142" t="s">
         <v>388</v>
       </c>
-      <c r="C169" s="153">
+      <c r="C169" s="149">
         <v>5000</v>
       </c>
-      <c r="D169" s="109">
+      <c r="D169" s="106">
         <v>300</v>
       </c>
-      <c r="E169" s="80"/>
-      <c r="F169" s="80" t="s">
+      <c r="E169" s="77"/>
+      <c r="F169" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="G169" s="80" t="s">
+      <c r="G169" s="77" t="s">
         <v>389</v>
       </c>
-      <c r="H169" s="81" t="s">
+      <c r="H169" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I169" s="95" t="s">
+      <c r="I169" s="92" t="s">
         <v>379</v>
       </c>
       <c r="J169" s="19" t="s">
@@ -7408,48 +7409,48 @@
     </row>
     <row r="170" spans="1:10" ht="126" hidden="1">
       <c r="A170" s="62"/>
-      <c r="B170" s="146" t="s">
+      <c r="B170" s="142" t="s">
         <v>391</v>
       </c>
-      <c r="C170" s="131"/>
-      <c r="D170" s="109"/>
-      <c r="E170" s="80"/>
-      <c r="F170" s="80"/>
-      <c r="G170" s="80"/>
-      <c r="H170" s="80"/>
-      <c r="I170" s="80"/>
+      <c r="C170" s="127"/>
+      <c r="D170" s="106"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="77"/>
+      <c r="H170" s="77"/>
+      <c r="I170" s="77"/>
       <c r="J170" s="19" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="126" hidden="1">
       <c r="A171" s="62"/>
-      <c r="B171" s="146" t="s">
+      <c r="B171" s="142" t="s">
         <v>393</v>
       </c>
-      <c r="C171" s="131"/>
-      <c r="D171" s="109"/>
-      <c r="E171" s="80"/>
-      <c r="F171" s="80"/>
-      <c r="G171" s="80"/>
-      <c r="H171" s="80"/>
-      <c r="I171" s="80"/>
+      <c r="C171" s="127"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="77"/>
+      <c r="F171" s="77"/>
+      <c r="G171" s="77"/>
+      <c r="H171" s="77"/>
+      <c r="I171" s="77"/>
       <c r="J171" s="19" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="126" hidden="1">
       <c r="A172" s="62"/>
-      <c r="B172" s="146" t="s">
+      <c r="B172" s="142" t="s">
         <v>395</v>
       </c>
-      <c r="C172" s="131"/>
-      <c r="D172" s="109"/>
-      <c r="E172" s="80"/>
-      <c r="F172" s="80"/>
-      <c r="G172" s="80"/>
-      <c r="H172" s="80"/>
-      <c r="I172" s="80"/>
+      <c r="C172" s="127"/>
+      <c r="D172" s="106"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="77"/>
+      <c r="G172" s="77"/>
+      <c r="H172" s="77"/>
+      <c r="I172" s="77"/>
       <c r="J172" s="19" t="s">
         <v>396</v>
       </c>
@@ -7458,26 +7459,26 @@
       <c r="A173" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B173" s="146" t="s">
+      <c r="B173" s="142" t="s">
         <v>397</v>
       </c>
-      <c r="C173" s="153">
+      <c r="C173" s="149">
         <v>5000</v>
       </c>
-      <c r="D173" s="109">
+      <c r="D173" s="106">
         <v>300</v>
       </c>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80" t="s">
+      <c r="E173" s="77"/>
+      <c r="F173" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="G173" s="80" t="s">
+      <c r="G173" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="H173" s="81" t="s">
+      <c r="H173" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I173" s="95" t="s">
+      <c r="I173" s="92" t="s">
         <v>379</v>
       </c>
       <c r="J173" s="19" t="s">
@@ -7486,64 +7487,64 @@
     </row>
     <row r="174" spans="1:10" ht="84" hidden="1">
       <c r="A174" s="62"/>
-      <c r="B174" s="146" t="s">
+      <c r="B174" s="142" t="s">
         <v>399</v>
       </c>
-      <c r="C174" s="131"/>
-      <c r="D174" s="109"/>
-      <c r="E174" s="80"/>
-      <c r="F174" s="80"/>
-      <c r="G174" s="80"/>
-      <c r="H174" s="80"/>
-      <c r="I174" s="80"/>
+      <c r="C174" s="127"/>
+      <c r="D174" s="106"/>
+      <c r="E174" s="77"/>
+      <c r="F174" s="77"/>
+      <c r="G174" s="77"/>
+      <c r="H174" s="77"/>
+      <c r="I174" s="77"/>
       <c r="J174" s="19" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="70" hidden="1">
       <c r="A175" s="62"/>
-      <c r="B175" s="146" t="s">
+      <c r="B175" s="142" t="s">
         <v>401</v>
       </c>
-      <c r="C175" s="131"/>
-      <c r="D175" s="109"/>
-      <c r="E175" s="80"/>
-      <c r="F175" s="80"/>
-      <c r="G175" s="80"/>
-      <c r="H175" s="80"/>
-      <c r="I175" s="80"/>
+      <c r="C175" s="127"/>
+      <c r="D175" s="106"/>
+      <c r="E175" s="77"/>
+      <c r="F175" s="77"/>
+      <c r="G175" s="77"/>
+      <c r="H175" s="77"/>
+      <c r="I175" s="77"/>
       <c r="J175" s="19" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="84" hidden="1">
       <c r="A176" s="62"/>
-      <c r="B176" s="146" t="s">
+      <c r="B176" s="142" t="s">
         <v>403</v>
       </c>
-      <c r="C176" s="131"/>
-      <c r="D176" s="109"/>
-      <c r="E176" s="80"/>
-      <c r="F176" s="80"/>
-      <c r="G176" s="80"/>
-      <c r="H176" s="80"/>
-      <c r="I176" s="80"/>
+      <c r="C176" s="127"/>
+      <c r="D176" s="106"/>
+      <c r="E176" s="77"/>
+      <c r="F176" s="77"/>
+      <c r="G176" s="77"/>
+      <c r="H176" s="77"/>
+      <c r="I176" s="77"/>
       <c r="J176" s="19" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="70" hidden="1">
       <c r="A177" s="62"/>
-      <c r="B177" s="146" t="s">
+      <c r="B177" s="142" t="s">
         <v>405</v>
       </c>
-      <c r="C177" s="131"/>
-      <c r="D177" s="109"/>
-      <c r="E177" s="80"/>
-      <c r="F177" s="80"/>
-      <c r="G177" s="80"/>
-      <c r="H177" s="80"/>
-      <c r="I177" s="80"/>
+      <c r="C177" s="127"/>
+      <c r="D177" s="106"/>
+      <c r="E177" s="77"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="77"/>
+      <c r="I177" s="77"/>
       <c r="J177" s="19" t="s">
         <v>406</v>
       </c>
@@ -7552,56 +7553,56 @@
       <c r="A178" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="B178" s="146" t="s">
+      <c r="B178" s="142" t="s">
         <v>408</v>
       </c>
-      <c r="C178" s="119">
+      <c r="C178" s="115">
         <v>200</v>
       </c>
-      <c r="D178" s="109">
+      <c r="D178" s="106">
         <v>300</v>
       </c>
-      <c r="E178" s="80"/>
-      <c r="F178" s="80" t="s">
+      <c r="E178" s="77"/>
+      <c r="F178" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="G178" s="80"/>
-      <c r="H178" s="81" t="s">
+      <c r="G178" s="77"/>
+      <c r="H178" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I178" s="80"/>
+      <c r="I178" s="77"/>
       <c r="J178" s="19" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="56" hidden="1">
       <c r="A179" s="62"/>
-      <c r="B179" s="146" t="s">
+      <c r="B179" s="142" t="s">
         <v>411</v>
       </c>
-      <c r="C179" s="131"/>
-      <c r="D179" s="109"/>
-      <c r="E179" s="80"/>
-      <c r="F179" s="80"/>
-      <c r="G179" s="80"/>
-      <c r="H179" s="80"/>
-      <c r="I179" s="80"/>
+      <c r="C179" s="127"/>
+      <c r="D179" s="106"/>
+      <c r="E179" s="77"/>
+      <c r="F179" s="77"/>
+      <c r="G179" s="77"/>
+      <c r="H179" s="77"/>
+      <c r="I179" s="77"/>
       <c r="J179" s="19" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="56" hidden="1">
       <c r="A180" s="62"/>
-      <c r="B180" s="146" t="s">
+      <c r="B180" s="142" t="s">
         <v>413</v>
       </c>
-      <c r="C180" s="131"/>
-      <c r="D180" s="109"/>
-      <c r="E180" s="80"/>
-      <c r="F180" s="80"/>
-      <c r="G180" s="80"/>
-      <c r="H180" s="80"/>
-      <c r="I180" s="80"/>
+      <c r="C180" s="127"/>
+      <c r="D180" s="106"/>
+      <c r="E180" s="77"/>
+      <c r="F180" s="77"/>
+      <c r="G180" s="77"/>
+      <c r="H180" s="77"/>
+      <c r="I180" s="77"/>
       <c r="J180" s="19" t="s">
         <v>414</v>
       </c>
@@ -7610,24 +7611,24 @@
       <c r="A181" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="146" t="s">
+      <c r="B181" s="142" t="s">
         <v>416</v>
       </c>
-      <c r="C181" s="119">
+      <c r="C181" s="115">
         <v>200</v>
       </c>
-      <c r="D181" s="109">
+      <c r="D181" s="106">
         <v>300</v>
       </c>
-      <c r="E181" s="80"/>
-      <c r="F181" s="80" t="s">
+      <c r="E181" s="77"/>
+      <c r="F181" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="G181" s="80"/>
-      <c r="H181" s="81" t="s">
+      <c r="G181" s="77"/>
+      <c r="H181" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I181" s="80"/>
+      <c r="I181" s="77"/>
       <c r="J181" s="19" t="s">
         <v>419</v>
       </c>
@@ -7656,48 +7657,48 @@
     </row>
     <row r="183" spans="1:10" ht="56" hidden="1">
       <c r="A183" s="62"/>
-      <c r="B183" s="146" t="s">
+      <c r="B183" s="142" t="s">
         <v>422</v>
       </c>
-      <c r="C183" s="131"/>
-      <c r="D183" s="109"/>
-      <c r="E183" s="80"/>
-      <c r="F183" s="80"/>
-      <c r="G183" s="80"/>
-      <c r="H183" s="80"/>
-      <c r="I183" s="80"/>
+      <c r="C183" s="127"/>
+      <c r="D183" s="106"/>
+      <c r="E183" s="77"/>
+      <c r="F183" s="77"/>
+      <c r="G183" s="77"/>
+      <c r="H183" s="77"/>
+      <c r="I183" s="77"/>
       <c r="J183" s="19" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="70" hidden="1">
       <c r="A184" s="62"/>
-      <c r="B184" s="146" t="s">
+      <c r="B184" s="142" t="s">
         <v>424</v>
       </c>
-      <c r="C184" s="131"/>
-      <c r="D184" s="109"/>
-      <c r="E184" s="80"/>
-      <c r="F184" s="80"/>
-      <c r="G184" s="80"/>
-      <c r="H184" s="80"/>
-      <c r="I184" s="80"/>
+      <c r="C184" s="127"/>
+      <c r="D184" s="106"/>
+      <c r="E184" s="77"/>
+      <c r="F184" s="77"/>
+      <c r="G184" s="77"/>
+      <c r="H184" s="77"/>
+      <c r="I184" s="77"/>
       <c r="J184" s="19" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="56" hidden="1">
       <c r="A185" s="62"/>
-      <c r="B185" s="146" t="s">
+      <c r="B185" s="142" t="s">
         <v>420</v>
       </c>
-      <c r="C185" s="131"/>
-      <c r="D185" s="109"/>
-      <c r="E185" s="80"/>
-      <c r="F185" s="80"/>
-      <c r="G185" s="80"/>
-      <c r="H185" s="80"/>
-      <c r="I185" s="80"/>
+      <c r="C185" s="127"/>
+      <c r="D185" s="106"/>
+      <c r="E185" s="77"/>
+      <c r="F185" s="77"/>
+      <c r="G185" s="77"/>
+      <c r="H185" s="77"/>
+      <c r="I185" s="77"/>
       <c r="J185" s="19" t="s">
         <v>421</v>
       </c>
@@ -7706,13 +7707,13 @@
       <c r="A186" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B186" s="140" t="s">
+      <c r="B186" s="136" t="s">
         <v>426</v>
       </c>
-      <c r="C186" s="121" t="s">
+      <c r="C186" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="113"/>
+      <c r="D186" s="110"/>
       <c r="E186" s="28" t="s">
         <v>13</v>
       </c>
@@ -7724,11 +7725,11 @@
     </row>
     <row r="187" spans="1:10" ht="42" hidden="1">
       <c r="A187" s="62"/>
-      <c r="B187" s="146" t="s">
+      <c r="B187" s="142" t="s">
         <v>427</v>
       </c>
-      <c r="C187" s="131"/>
-      <c r="D187" s="114"/>
+      <c r="C187" s="127"/>
+      <c r="D187" s="111"/>
       <c r="E187" s="64"/>
       <c r="F187" s="66"/>
       <c r="G187" s="66"/>
@@ -7740,11 +7741,11 @@
     </row>
     <row r="188" spans="1:10" ht="42" hidden="1">
       <c r="A188" s="62"/>
-      <c r="B188" s="146" t="s">
+      <c r="B188" s="142" t="s">
         <v>429</v>
       </c>
-      <c r="C188" s="131"/>
-      <c r="D188" s="114"/>
+      <c r="C188" s="127"/>
+      <c r="D188" s="111"/>
       <c r="E188" s="64"/>
       <c r="F188" s="66"/>
       <c r="G188" s="66"/>
@@ -7756,11 +7757,11 @@
     </row>
     <row r="189" spans="1:10" ht="70" hidden="1">
       <c r="A189" s="62"/>
-      <c r="B189" s="146" t="s">
+      <c r="B189" s="142" t="s">
         <v>431</v>
       </c>
-      <c r="C189" s="131"/>
-      <c r="D189" s="114"/>
+      <c r="C189" s="127"/>
+      <c r="D189" s="111"/>
       <c r="E189" s="64"/>
       <c r="F189" s="66"/>
       <c r="G189" s="66"/>
@@ -7772,11 +7773,11 @@
     </row>
     <row r="190" spans="1:10" ht="42" hidden="1">
       <c r="A190" s="62"/>
-      <c r="B190" s="146" t="s">
+      <c r="B190" s="142" t="s">
         <v>433</v>
       </c>
-      <c r="C190" s="131"/>
-      <c r="D190" s="114"/>
+      <c r="C190" s="127"/>
+      <c r="D190" s="111"/>
       <c r="E190" s="64"/>
       <c r="F190" s="66"/>
       <c r="G190" s="66"/>
@@ -7788,11 +7789,11 @@
     </row>
     <row r="191" spans="1:10" ht="42" hidden="1">
       <c r="A191" s="62"/>
-      <c r="B191" s="146" t="s">
+      <c r="B191" s="142" t="s">
         <v>435</v>
       </c>
-      <c r="C191" s="131"/>
-      <c r="D191" s="114"/>
+      <c r="C191" s="127"/>
+      <c r="D191" s="111"/>
       <c r="E191" s="64"/>
       <c r="F191" s="66"/>
       <c r="G191" s="66"/>
@@ -7804,11 +7805,11 @@
     </row>
     <row r="192" spans="1:10" ht="42" hidden="1">
       <c r="A192" s="62"/>
-      <c r="B192" s="146" t="s">
+      <c r="B192" s="142" t="s">
         <v>437</v>
       </c>
-      <c r="C192" s="131"/>
-      <c r="D192" s="114"/>
+      <c r="C192" s="127"/>
+      <c r="D192" s="111"/>
       <c r="E192" s="64"/>
       <c r="F192" s="66"/>
       <c r="G192" s="66"/>
@@ -7818,13 +7819,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="56" hidden="1">
+    <row r="193" spans="1:10" ht="42" hidden="1">
       <c r="A193" s="62"/>
-      <c r="B193" s="146" t="s">
+      <c r="B193" s="142" t="s">
         <v>439</v>
       </c>
-      <c r="C193" s="131"/>
-      <c r="D193" s="114"/>
+      <c r="C193" s="127"/>
+      <c r="D193" s="111"/>
       <c r="E193" s="64"/>
       <c r="F193" s="66"/>
       <c r="G193" s="66"/>
@@ -7836,11 +7837,11 @@
     </row>
     <row r="194" spans="1:10" ht="42" hidden="1">
       <c r="A194" s="62"/>
-      <c r="B194" s="146" t="s">
+      <c r="B194" s="142" t="s">
         <v>441</v>
       </c>
-      <c r="C194" s="131"/>
-      <c r="D194" s="114"/>
+      <c r="C194" s="127"/>
+      <c r="D194" s="111"/>
       <c r="E194" s="64"/>
       <c r="F194" s="66"/>
       <c r="G194" s="66"/>
@@ -7852,11 +7853,11 @@
     </row>
     <row r="195" spans="1:10" ht="70" hidden="1">
       <c r="A195" s="62"/>
-      <c r="B195" s="146" t="s">
+      <c r="B195" s="142" t="s">
         <v>443</v>
       </c>
-      <c r="C195" s="131"/>
-      <c r="D195" s="114"/>
+      <c r="C195" s="127"/>
+      <c r="D195" s="111"/>
       <c r="E195" s="64"/>
       <c r="F195" s="66"/>
       <c r="G195" s="66"/>
@@ -7868,11 +7869,11 @@
     </row>
     <row r="196" spans="1:10" ht="70" hidden="1">
       <c r="A196" s="62"/>
-      <c r="B196" s="146" t="s">
+      <c r="B196" s="142" t="s">
         <v>445</v>
       </c>
-      <c r="C196" s="131"/>
-      <c r="D196" s="114"/>
+      <c r="C196" s="127"/>
+      <c r="D196" s="111"/>
       <c r="E196" s="64"/>
       <c r="F196" s="66"/>
       <c r="G196" s="66"/>
@@ -7884,11 +7885,11 @@
     </row>
     <row r="197" spans="1:10" ht="56" hidden="1">
       <c r="A197" s="62"/>
-      <c r="B197" s="146" t="s">
+      <c r="B197" s="142" t="s">
         <v>447</v>
       </c>
-      <c r="C197" s="131"/>
-      <c r="D197" s="114"/>
+      <c r="C197" s="127"/>
+      <c r="D197" s="111"/>
       <c r="E197" s="64"/>
       <c r="F197" s="66"/>
       <c r="G197" s="66"/>
@@ -7900,11 +7901,11 @@
     </row>
     <row r="198" spans="1:10" ht="70" hidden="1">
       <c r="A198" s="62"/>
-      <c r="B198" s="146" t="s">
+      <c r="B198" s="142" t="s">
         <v>449</v>
       </c>
-      <c r="C198" s="131"/>
-      <c r="D198" s="114"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="111"/>
       <c r="E198" s="64"/>
       <c r="F198" s="66"/>
       <c r="G198" s="66"/>
@@ -7916,11 +7917,11 @@
     </row>
     <row r="199" spans="1:10" ht="42" hidden="1">
       <c r="A199" s="62"/>
-      <c r="B199" s="146" t="s">
+      <c r="B199" s="142" t="s">
         <v>451</v>
       </c>
-      <c r="C199" s="131"/>
-      <c r="D199" s="114"/>
+      <c r="C199" s="127"/>
+      <c r="D199" s="111"/>
       <c r="E199" s="64"/>
       <c r="F199" s="66"/>
       <c r="G199" s="66"/>
@@ -7934,13 +7935,13 @@
       <c r="A200" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="B200" s="146" t="s">
+      <c r="B200" s="142" t="s">
         <v>454</v>
       </c>
-      <c r="C200" s="119">
+      <c r="C200" s="115">
         <v>1000</v>
       </c>
-      <c r="D200" s="109">
+      <c r="D200" s="106">
         <v>300</v>
       </c>
       <c r="E200" s="67"/>
@@ -7958,13 +7959,13 @@
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="56" hidden="1">
+    <row r="201" spans="1:10" ht="42" hidden="1">
       <c r="A201" s="62"/>
-      <c r="B201" s="146" t="s">
+      <c r="B201" s="142" t="s">
         <v>458</v>
       </c>
-      <c r="C201" s="131"/>
-      <c r="D201" s="114"/>
+      <c r="C201" s="127"/>
+      <c r="D201" s="111"/>
       <c r="E201" s="64"/>
       <c r="F201" s="66"/>
       <c r="G201" s="66"/>
@@ -7974,7 +7975,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="56" hidden="1">
+    <row r="202" spans="1:10" ht="42" hidden="1">
       <c r="A202" s="62"/>
       <c r="B202" s="62" t="s">
         <v>460</v>
@@ -7998,13 +7999,13 @@
       <c r="A203" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="B203" s="146" t="s">
+      <c r="B203" s="142" t="s">
         <v>462</v>
       </c>
-      <c r="C203" s="119">
+      <c r="C203" s="115">
         <v>1000</v>
       </c>
-      <c r="D203" s="109">
+      <c r="D203" s="106">
         <v>300</v>
       </c>
       <c r="E203" s="67"/>
@@ -8022,17 +8023,17 @@
         <v>463</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="56">
+    <row r="204" spans="1:10" ht="42">
       <c r="A204" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="B204" s="146" t="s">
+      <c r="B204" s="142" t="s">
         <v>464</v>
       </c>
-      <c r="C204" s="119">
+      <c r="C204" s="115">
         <v>3600</v>
       </c>
-      <c r="D204" s="109">
+      <c r="D204" s="106">
         <v>300</v>
       </c>
       <c r="E204" s="67"/>
@@ -8050,13 +8051,13 @@
         <v>465</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="70" hidden="1">
+    <row r="205" spans="1:10" ht="42" hidden="1">
       <c r="A205" s="62"/>
-      <c r="B205" s="146" t="s">
+      <c r="B205" s="142" t="s">
         <v>466</v>
       </c>
-      <c r="C205" s="131"/>
-      <c r="D205" s="114"/>
+      <c r="C205" s="127"/>
+      <c r="D205" s="111"/>
       <c r="E205" s="64"/>
       <c r="F205" s="66"/>
       <c r="G205" s="66"/>
@@ -8070,13 +8071,13 @@
       <c r="A206" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="B206" s="146" t="s">
+      <c r="B206" s="142" t="s">
         <v>468</v>
       </c>
-      <c r="C206" s="119">
+      <c r="C206" s="115">
         <v>3600</v>
       </c>
-      <c r="D206" s="109">
+      <c r="D206" s="106">
         <v>300</v>
       </c>
       <c r="E206" s="67"/>
@@ -8094,13 +8095,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="70" hidden="1">
+    <row r="207" spans="1:10" ht="42" hidden="1">
       <c r="A207" s="62"/>
-      <c r="B207" s="146" t="s">
+      <c r="B207" s="142" t="s">
         <v>470</v>
       </c>
-      <c r="C207" s="131"/>
-      <c r="D207" s="114"/>
+      <c r="C207" s="127"/>
+      <c r="D207" s="111"/>
       <c r="E207" s="64"/>
       <c r="F207" s="66"/>
       <c r="G207" s="66"/>
@@ -8112,11 +8113,11 @@
     </row>
     <row r="208" spans="1:10" ht="70" hidden="1">
       <c r="A208" s="62"/>
-      <c r="B208" s="146" t="s">
+      <c r="B208" s="142" t="s">
         <v>472</v>
       </c>
-      <c r="C208" s="131"/>
-      <c r="D208" s="114"/>
+      <c r="C208" s="127"/>
+      <c r="D208" s="111"/>
       <c r="E208" s="64"/>
       <c r="F208" s="66"/>
       <c r="G208" s="66"/>
@@ -8128,11 +8129,11 @@
     </row>
     <row r="209" spans="1:10" ht="70" hidden="1">
       <c r="A209" s="62"/>
-      <c r="B209" s="146" t="s">
+      <c r="B209" s="142" t="s">
         <v>474</v>
       </c>
-      <c r="C209" s="131"/>
-      <c r="D209" s="114"/>
+      <c r="C209" s="127"/>
+      <c r="D209" s="111"/>
       <c r="E209" s="64"/>
       <c r="F209" s="66"/>
       <c r="G209" s="66"/>
@@ -8144,11 +8145,11 @@
     </row>
     <row r="210" spans="1:10" ht="70" hidden="1">
       <c r="A210" s="62"/>
-      <c r="B210" s="146" t="s">
+      <c r="B210" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="C210" s="131"/>
-      <c r="D210" s="114"/>
+      <c r="C210" s="127"/>
+      <c r="D210" s="111"/>
       <c r="E210" s="64"/>
       <c r="F210" s="66"/>
       <c r="G210" s="66"/>
@@ -8162,13 +8163,13 @@
       <c r="A211" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="B211" s="146" t="s">
+      <c r="B211" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="C211" s="119">
+      <c r="C211" s="115">
         <v>10000</v>
       </c>
-      <c r="D211" s="109">
+      <c r="D211" s="106">
         <v>300</v>
       </c>
       <c r="E211" s="17"/>
@@ -8192,13 +8193,13 @@
       <c r="A212" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="B212" s="146" t="s">
+      <c r="B212" s="142" t="s">
         <v>482</v>
       </c>
-      <c r="C212" s="119">
+      <c r="C212" s="115">
         <v>10000</v>
       </c>
-      <c r="D212" s="109">
+      <c r="D212" s="106">
         <v>300</v>
       </c>
       <c r="E212" s="17"/>
@@ -8220,11 +8221,11 @@
     </row>
     <row r="213" spans="1:10" ht="70" hidden="1">
       <c r="A213" s="62"/>
-      <c r="B213" s="146" t="s">
+      <c r="B213" s="142" t="s">
         <v>484</v>
       </c>
-      <c r="C213" s="131"/>
-      <c r="D213" s="114"/>
+      <c r="C213" s="127"/>
+      <c r="D213" s="111"/>
       <c r="E213" s="64"/>
       <c r="F213" s="66"/>
       <c r="G213" s="66"/>
@@ -8236,11 +8237,11 @@
     </row>
     <row r="214" spans="1:10" ht="42" hidden="1">
       <c r="A214" s="62"/>
-      <c r="B214" s="146" t="s">
+      <c r="B214" s="142" t="s">
         <v>486</v>
       </c>
-      <c r="C214" s="131"/>
-      <c r="D214" s="114"/>
+      <c r="C214" s="127"/>
+      <c r="D214" s="111"/>
       <c r="E214" s="64"/>
       <c r="F214" s="66"/>
       <c r="G214" s="66"/>
@@ -8250,13 +8251,13 @@
         <v>487</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="56" hidden="1">
+    <row r="215" spans="1:10" ht="42" hidden="1">
       <c r="A215" s="62"/>
-      <c r="B215" s="146" t="s">
+      <c r="B215" s="142" t="s">
         <v>488</v>
       </c>
-      <c r="C215" s="131"/>
-      <c r="D215" s="114"/>
+      <c r="C215" s="127"/>
+      <c r="D215" s="111"/>
       <c r="E215" s="64"/>
       <c r="F215" s="66"/>
       <c r="G215" s="66"/>
@@ -8268,11 +8269,11 @@
     </row>
     <row r="216" spans="1:10" ht="56" hidden="1">
       <c r="A216" s="62"/>
-      <c r="B216" s="146" t="s">
+      <c r="B216" s="142" t="s">
         <v>490</v>
       </c>
-      <c r="C216" s="131"/>
-      <c r="D216" s="114"/>
+      <c r="C216" s="127"/>
+      <c r="D216" s="111"/>
       <c r="E216" s="64"/>
       <c r="F216" s="66"/>
       <c r="G216" s="66"/>
@@ -8284,11 +8285,11 @@
     </row>
     <row r="217" spans="1:10" ht="70" hidden="1">
       <c r="A217" s="62"/>
-      <c r="B217" s="146" t="s">
+      <c r="B217" s="142" t="s">
         <v>492</v>
       </c>
-      <c r="C217" s="131"/>
-      <c r="D217" s="114"/>
+      <c r="C217" s="127"/>
+      <c r="D217" s="111"/>
       <c r="E217" s="64"/>
       <c r="F217" s="66"/>
       <c r="G217" s="66"/>
@@ -8300,11 +8301,11 @@
     </row>
     <row r="218" spans="1:10" ht="70" hidden="1">
       <c r="A218" s="62"/>
-      <c r="B218" s="146" t="s">
+      <c r="B218" s="142" t="s">
         <v>494</v>
       </c>
-      <c r="C218" s="131"/>
-      <c r="D218" s="114"/>
+      <c r="C218" s="127"/>
+      <c r="D218" s="111"/>
       <c r="E218" s="64"/>
       <c r="F218" s="66"/>
       <c r="G218" s="66"/>
@@ -8316,11 +8317,11 @@
     </row>
     <row r="219" spans="1:10" ht="70" hidden="1">
       <c r="A219" s="62"/>
-      <c r="B219" s="146" t="s">
+      <c r="B219" s="142" t="s">
         <v>496</v>
       </c>
-      <c r="C219" s="131"/>
-      <c r="D219" s="114"/>
+      <c r="C219" s="127"/>
+      <c r="D219" s="111"/>
       <c r="E219" s="64"/>
       <c r="F219" s="66"/>
       <c r="G219" s="66"/>
@@ -8332,11 +8333,11 @@
     </row>
     <row r="220" spans="1:10" ht="70" hidden="1">
       <c r="A220" s="62"/>
-      <c r="B220" s="146" t="s">
+      <c r="B220" s="142" t="s">
         <v>498</v>
       </c>
-      <c r="C220" s="131"/>
-      <c r="D220" s="114"/>
+      <c r="C220" s="127"/>
+      <c r="D220" s="111"/>
       <c r="E220" s="64"/>
       <c r="F220" s="66"/>
       <c r="G220" s="66"/>
@@ -8348,11 +8349,11 @@
     </row>
     <row r="221" spans="1:10" ht="70" hidden="1">
       <c r="A221" s="62"/>
-      <c r="B221" s="146" t="s">
+      <c r="B221" s="142" t="s">
         <v>500</v>
       </c>
-      <c r="C221" s="131"/>
-      <c r="D221" s="114"/>
+      <c r="C221" s="127"/>
+      <c r="D221" s="111"/>
       <c r="E221" s="64"/>
       <c r="F221" s="66"/>
       <c r="G221" s="66"/>
@@ -8364,11 +8365,11 @@
     </row>
     <row r="222" spans="1:10" ht="70" hidden="1">
       <c r="A222" s="62"/>
-      <c r="B222" s="146" t="s">
+      <c r="B222" s="142" t="s">
         <v>502</v>
       </c>
-      <c r="C222" s="131"/>
-      <c r="D222" s="114"/>
+      <c r="C222" s="127"/>
+      <c r="D222" s="111"/>
       <c r="E222" s="64"/>
       <c r="F222" s="66"/>
       <c r="G222" s="66"/>
@@ -8380,11 +8381,11 @@
     </row>
     <row r="223" spans="1:10" ht="42" hidden="1">
       <c r="A223" s="62"/>
-      <c r="B223" s="146" t="s">
+      <c r="B223" s="142" t="s">
         <v>504</v>
       </c>
-      <c r="C223" s="131"/>
-      <c r="D223" s="114"/>
+      <c r="C223" s="127"/>
+      <c r="D223" s="111"/>
       <c r="E223" s="64"/>
       <c r="F223" s="66"/>
       <c r="G223" s="66"/>
@@ -8396,11 +8397,11 @@
     </row>
     <row r="224" spans="1:10" ht="70" hidden="1">
       <c r="A224" s="62"/>
-      <c r="B224" s="146" t="s">
+      <c r="B224" s="142" t="s">
         <v>506</v>
       </c>
-      <c r="C224" s="131"/>
-      <c r="D224" s="114"/>
+      <c r="C224" s="127"/>
+      <c r="D224" s="111"/>
       <c r="E224" s="64"/>
       <c r="F224" s="66"/>
       <c r="G224" s="66"/>
@@ -8412,11 +8413,11 @@
     </row>
     <row r="225" spans="1:10" ht="70" hidden="1">
       <c r="A225" s="62"/>
-      <c r="B225" s="146" t="s">
+      <c r="B225" s="142" t="s">
         <v>508</v>
       </c>
-      <c r="C225" s="131"/>
-      <c r="D225" s="114"/>
+      <c r="C225" s="127"/>
+      <c r="D225" s="111"/>
       <c r="E225" s="64"/>
       <c r="F225" s="66"/>
       <c r="G225" s="66"/>
@@ -8428,11 +8429,11 @@
     </row>
     <row r="226" spans="1:10" ht="42" hidden="1">
       <c r="A226" s="62"/>
-      <c r="B226" s="146" t="s">
+      <c r="B226" s="142" t="s">
         <v>509</v>
       </c>
-      <c r="C226" s="131"/>
-      <c r="D226" s="114"/>
+      <c r="C226" s="127"/>
+      <c r="D226" s="111"/>
       <c r="E226" s="64"/>
       <c r="F226" s="66"/>
       <c r="G226" s="66"/>
@@ -8442,17 +8443,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="56">
+    <row r="227" spans="1:10" ht="42">
       <c r="A227" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="B227" s="146" t="s">
+      <c r="B227" s="142" t="s">
         <v>512</v>
       </c>
-      <c r="C227" s="119">
+      <c r="C227" s="115">
         <v>1000</v>
       </c>
-      <c r="D227" s="109">
+      <c r="D227" s="106">
         <v>300</v>
       </c>
       <c r="E227" s="67"/>
@@ -8474,13 +8475,13 @@
       <c r="A228" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="B228" s="146" t="s">
+      <c r="B228" s="142" t="s">
         <v>516</v>
       </c>
-      <c r="C228" s="119">
+      <c r="C228" s="115">
         <v>1000</v>
       </c>
-      <c r="D228" s="109">
+      <c r="D228" s="106">
         <v>300</v>
       </c>
       <c r="E228" s="67"/>
@@ -8498,17 +8499,17 @@
         <v>517</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="70">
+    <row r="229" spans="1:10" ht="42">
       <c r="A229" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="B229" s="146" t="s">
+      <c r="B229" s="142" t="s">
         <v>518</v>
       </c>
-      <c r="C229" s="119">
+      <c r="C229" s="115">
         <v>3600</v>
       </c>
-      <c r="D229" s="109">
+      <c r="D229" s="106">
         <v>300</v>
       </c>
       <c r="E229" s="67"/>
@@ -8526,17 +8527,17 @@
         <v>519</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="70">
+    <row r="230" spans="1:10" ht="42">
       <c r="A230" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="B230" s="146" t="s">
+      <c r="B230" s="142" t="s">
         <v>520</v>
       </c>
-      <c r="C230" s="119">
+      <c r="C230" s="115">
         <v>3600</v>
       </c>
-      <c r="D230" s="109">
+      <c r="D230" s="106">
         <v>300</v>
       </c>
       <c r="E230" s="67"/>
@@ -8556,11 +8557,11 @@
     </row>
     <row r="231" spans="1:10" ht="42" hidden="1">
       <c r="A231" s="62"/>
-      <c r="B231" s="146" t="s">
+      <c r="B231" s="142" t="s">
         <v>522</v>
       </c>
-      <c r="C231" s="131"/>
-      <c r="D231" s="114"/>
+      <c r="C231" s="127"/>
+      <c r="D231" s="111"/>
       <c r="E231" s="64"/>
       <c r="F231" s="66"/>
       <c r="G231" s="66"/>
@@ -8574,13 +8575,13 @@
       <c r="A232" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="B232" s="146" t="s">
+      <c r="B232" s="142" t="s">
         <v>524</v>
       </c>
-      <c r="C232" s="119">
+      <c r="C232" s="115">
         <v>10000</v>
       </c>
-      <c r="D232" s="109">
+      <c r="D232" s="106">
         <v>300</v>
       </c>
       <c r="E232" s="17"/>
@@ -8602,13 +8603,13 @@
       <c r="A233" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="B233" s="146" t="s">
+      <c r="B233" s="142" t="s">
         <v>526</v>
       </c>
-      <c r="C233" s="119">
+      <c r="C233" s="115">
         <v>10000</v>
       </c>
-      <c r="D233" s="109">
+      <c r="D233" s="106">
         <v>300</v>
       </c>
       <c r="E233" s="32"/>
@@ -8628,11 +8629,11 @@
     </row>
     <row r="234" spans="1:10" ht="42" hidden="1">
       <c r="A234" s="62"/>
-      <c r="B234" s="146" t="s">
+      <c r="B234" s="142" t="s">
         <v>528</v>
       </c>
-      <c r="C234" s="131"/>
-      <c r="D234" s="114"/>
+      <c r="C234" s="127"/>
+      <c r="D234" s="111"/>
       <c r="E234" s="64"/>
       <c r="F234" s="66"/>
       <c r="G234" s="66"/>
@@ -8644,11 +8645,11 @@
     </row>
     <row r="235" spans="1:10" ht="14" hidden="1">
       <c r="A235" s="29"/>
-      <c r="B235" s="140" t="s">
+      <c r="B235" s="136" t="s">
         <v>530</v>
       </c>
-      <c r="C235" s="117"/>
-      <c r="D235" s="113"/>
+      <c r="C235" s="113"/>
+      <c r="D235" s="110"/>
       <c r="E235" s="59"/>
       <c r="F235" s="59"/>
       <c r="G235" s="59"/>
@@ -8684,13 +8685,13 @@
       <c r="A237" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B237" s="140" t="s">
+      <c r="B237" s="136" t="s">
         <v>535</v>
       </c>
-      <c r="C237" s="117" t="s">
+      <c r="C237" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D237" s="113"/>
+      <c r="D237" s="110"/>
       <c r="E237" s="59"/>
       <c r="F237" s="59"/>
       <c r="G237" s="59"/>
@@ -8704,13 +8705,13 @@
       <c r="A238" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="B238" s="149" t="s">
+      <c r="B238" s="145" t="s">
         <v>538</v>
       </c>
-      <c r="C238" s="119" t="s">
+      <c r="C238" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="D238" s="109">
+      <c r="D238" s="106">
         <v>300</v>
       </c>
       <c r="E238" s="74"/>
@@ -8728,11 +8729,11 @@
     </row>
     <row r="239" spans="1:10" ht="13" hidden="1">
       <c r="A239" s="62"/>
-      <c r="B239" s="149" t="s">
+      <c r="B239" s="145" t="s">
         <v>542</v>
       </c>
-      <c r="C239" s="131"/>
-      <c r="D239" s="114"/>
+      <c r="C239" s="127"/>
+      <c r="D239" s="111"/>
       <c r="E239" s="64"/>
       <c r="F239" s="66"/>
       <c r="G239" s="66"/>
@@ -8744,11 +8745,11 @@
     </row>
     <row r="240" spans="1:10" ht="13" hidden="1">
       <c r="A240" s="62"/>
-      <c r="B240" s="149" t="s">
+      <c r="B240" s="145" t="s">
         <v>544</v>
       </c>
-      <c r="C240" s="131"/>
-      <c r="D240" s="114"/>
+      <c r="C240" s="127"/>
+      <c r="D240" s="111"/>
       <c r="E240" s="64"/>
       <c r="F240" s="66"/>
       <c r="G240" s="66"/>
@@ -8760,11 +8761,11 @@
     </row>
     <row r="241" spans="1:10" ht="13" hidden="1">
       <c r="A241" s="62"/>
-      <c r="B241" s="149" t="s">
+      <c r="B241" s="145" t="s">
         <v>546</v>
       </c>
-      <c r="C241" s="131"/>
-      <c r="D241" s="114"/>
+      <c r="C241" s="127"/>
+      <c r="D241" s="111"/>
       <c r="E241" s="64"/>
       <c r="F241" s="66"/>
       <c r="G241" s="66"/>
@@ -8776,11 +8777,11 @@
     </row>
     <row r="242" spans="1:10" ht="13" hidden="1">
       <c r="A242" s="38"/>
-      <c r="B242" s="149" t="s">
+      <c r="B242" s="145" t="s">
         <v>548</v>
       </c>
-      <c r="C242" s="131"/>
-      <c r="D242" s="114"/>
+      <c r="C242" s="127"/>
+      <c r="D242" s="111"/>
       <c r="E242" s="64"/>
       <c r="F242" s="66"/>
       <c r="G242" s="66"/>
@@ -8794,13 +8795,13 @@
       <c r="A243" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="B243" s="149" t="s">
+      <c r="B243" s="145" t="s">
         <v>551</v>
       </c>
-      <c r="C243" s="119">
+      <c r="C243" s="115">
         <v>10000</v>
       </c>
-      <c r="D243" s="109">
+      <c r="D243" s="106">
         <v>300</v>
       </c>
       <c r="E243" s="67"/>
@@ -8818,11 +8819,11 @@
     </row>
     <row r="244" spans="1:10" ht="13" hidden="1">
       <c r="A244" s="62"/>
-      <c r="B244" s="149" t="s">
+      <c r="B244" s="145" t="s">
         <v>553</v>
       </c>
-      <c r="C244" s="131"/>
-      <c r="D244" s="114"/>
+      <c r="C244" s="127"/>
+      <c r="D244" s="111"/>
       <c r="E244" s="64"/>
       <c r="F244" s="66"/>
       <c r="G244" s="66"/>
@@ -8834,11 +8835,11 @@
     </row>
     <row r="245" spans="1:10" ht="13" hidden="1">
       <c r="A245" s="62"/>
-      <c r="B245" s="149" t="s">
+      <c r="B245" s="145" t="s">
         <v>555</v>
       </c>
-      <c r="C245" s="131"/>
-      <c r="D245" s="114"/>
+      <c r="C245" s="127"/>
+      <c r="D245" s="111"/>
       <c r="E245" s="64"/>
       <c r="F245" s="66"/>
       <c r="G245" s="66"/>
@@ -8852,13 +8853,13 @@
       <c r="A246" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B246" s="140" t="s">
+      <c r="B246" s="136" t="s">
         <v>557</v>
       </c>
-      <c r="C246" s="117" t="s">
+      <c r="C246" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D246" s="113"/>
+      <c r="D246" s="110"/>
       <c r="E246" s="59"/>
       <c r="F246" s="59"/>
       <c r="G246" s="59"/>
@@ -8869,25 +8870,25 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="28">
-      <c r="A247" s="96" t="s">
+      <c r="A247" s="93" t="s">
         <v>559</v>
       </c>
-      <c r="B247" s="150" t="s">
+      <c r="B247" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="C247" s="153">
+      <c r="C247" s="149">
         <v>0.8</v>
       </c>
-      <c r="D247" s="114"/>
-      <c r="E247" s="80"/>
-      <c r="F247" s="97"/>
-      <c r="G247" s="98" t="s">
+      <c r="D247" s="111"/>
+      <c r="E247" s="77"/>
+      <c r="F247" s="94"/>
+      <c r="G247" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="H247" s="81" t="s">
+      <c r="H247" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I247" s="99" t="s">
+      <c r="I247" s="96" t="s">
         <v>379</v>
       </c>
       <c r="J247" s="62" t="s">
@@ -8895,25 +8896,25 @@
       </c>
     </row>
     <row r="248" spans="1:10" ht="28">
-      <c r="A248" s="96" t="s">
+      <c r="A248" s="93" t="s">
         <v>559</v>
       </c>
-      <c r="B248" s="150" t="s">
+      <c r="B248" s="146" t="s">
         <v>563</v>
       </c>
-      <c r="C248" s="153">
+      <c r="C248" s="149">
         <v>0.9</v>
       </c>
-      <c r="D248" s="114"/>
-      <c r="E248" s="80"/>
-      <c r="F248" s="97"/>
-      <c r="G248" s="98" t="s">
+      <c r="D248" s="111"/>
+      <c r="E248" s="77"/>
+      <c r="F248" s="94"/>
+      <c r="G248" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="H248" s="81" t="s">
+      <c r="H248" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I248" s="99" t="s">
+      <c r="I248" s="96" t="s">
         <v>379</v>
       </c>
       <c r="J248" s="62" t="s">
@@ -8921,25 +8922,25 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="28">
-      <c r="A249" s="96" t="s">
+      <c r="A249" s="93" t="s">
         <v>559</v>
       </c>
-      <c r="B249" s="150" t="s">
+      <c r="B249" s="146" t="s">
         <v>565</v>
       </c>
-      <c r="C249" s="153">
+      <c r="C249" s="149">
         <v>0.7</v>
       </c>
-      <c r="D249" s="114"/>
-      <c r="E249" s="80"/>
-      <c r="F249" s="97"/>
-      <c r="G249" s="98" t="s">
+      <c r="D249" s="111"/>
+      <c r="E249" s="77"/>
+      <c r="F249" s="94"/>
+      <c r="G249" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="H249" s="81" t="s">
+      <c r="H249" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I249" s="99" t="s">
+      <c r="I249" s="96" t="s">
         <v>379</v>
       </c>
       <c r="J249" s="62" t="s">
@@ -8947,25 +8948,25 @@
       </c>
     </row>
     <row r="250" spans="1:10" ht="28">
-      <c r="A250" s="96" t="s">
+      <c r="A250" s="93" t="s">
         <v>559</v>
       </c>
-      <c r="B250" s="150" t="s">
+      <c r="B250" s="146" t="s">
         <v>567</v>
       </c>
-      <c r="C250" s="153" t="s">
+      <c r="C250" s="149" t="s">
         <v>568</v>
       </c>
-      <c r="D250" s="114"/>
-      <c r="E250" s="80"/>
-      <c r="F250" s="97"/>
-      <c r="G250" s="98" t="s">
+      <c r="D250" s="111"/>
+      <c r="E250" s="77"/>
+      <c r="F250" s="94"/>
+      <c r="G250" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="H250" s="81" t="s">
+      <c r="H250" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I250" s="99" t="s">
+      <c r="I250" s="96" t="s">
         <v>379</v>
       </c>
       <c r="J250" s="62" t="s">
@@ -8973,25 +8974,25 @@
       </c>
     </row>
     <row r="251" spans="1:10" ht="42">
-      <c r="A251" s="96" t="s">
+      <c r="A251" s="93" t="s">
         <v>559</v>
       </c>
-      <c r="B251" s="150" t="s">
+      <c r="B251" s="146" t="s">
         <v>570</v>
       </c>
-      <c r="C251" s="153">
+      <c r="C251" s="149">
         <v>0.7</v>
       </c>
-      <c r="D251" s="114"/>
-      <c r="E251" s="80"/>
-      <c r="F251" s="97"/>
-      <c r="G251" s="98" t="s">
+      <c r="D251" s="111"/>
+      <c r="E251" s="77"/>
+      <c r="F251" s="94"/>
+      <c r="G251" s="95" t="s">
         <v>561</v>
       </c>
-      <c r="H251" s="81" t="s">
+      <c r="H251" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="I251" s="99" t="s">
+      <c r="I251" s="96" t="s">
         <v>379</v>
       </c>
       <c r="J251" s="62" t="s">
@@ -8999,93 +9000,93 @@
       </c>
     </row>
     <row r="252" spans="1:10" ht="42" hidden="1">
-      <c r="A252" s="96"/>
-      <c r="B252" s="150" t="s">
+      <c r="A252" s="93"/>
+      <c r="B252" s="146" t="s">
         <v>572</v>
       </c>
-      <c r="C252" s="132"/>
-      <c r="D252" s="114"/>
-      <c r="E252" s="91"/>
-      <c r="F252" s="97"/>
-      <c r="G252" s="98"/>
-      <c r="H252" s="98"/>
-      <c r="I252" s="98"/>
+      <c r="C252" s="128"/>
+      <c r="D252" s="111"/>
+      <c r="E252" s="88"/>
+      <c r="F252" s="94"/>
+      <c r="G252" s="95"/>
+      <c r="H252" s="95"/>
+      <c r="I252" s="95"/>
       <c r="J252" s="62" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="42" hidden="1">
-      <c r="A253" s="96"/>
-      <c r="B253" s="150" t="s">
+      <c r="A253" s="93"/>
+      <c r="B253" s="146" t="s">
         <v>574</v>
       </c>
-      <c r="C253" s="132"/>
-      <c r="D253" s="114"/>
-      <c r="E253" s="91"/>
-      <c r="F253" s="97"/>
-      <c r="G253" s="98"/>
-      <c r="H253" s="98"/>
-      <c r="I253" s="98"/>
+      <c r="C253" s="128"/>
+      <c r="D253" s="111"/>
+      <c r="E253" s="88"/>
+      <c r="F253" s="94"/>
+      <c r="G253" s="95"/>
+      <c r="H253" s="95"/>
+      <c r="I253" s="95"/>
       <c r="J253" s="62" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="56" hidden="1">
-      <c r="A254" s="96"/>
-      <c r="B254" s="150" t="s">
+      <c r="A254" s="93"/>
+      <c r="B254" s="146" t="s">
         <v>576</v>
       </c>
-      <c r="C254" s="132"/>
-      <c r="D254" s="114"/>
-      <c r="E254" s="91" t="s">
+      <c r="C254" s="128"/>
+      <c r="D254" s="111"/>
+      <c r="E254" s="88" t="s">
         <v>577</v>
       </c>
-      <c r="F254" s="97"/>
-      <c r="G254" s="98"/>
-      <c r="H254" s="98"/>
-      <c r="I254" s="98"/>
+      <c r="F254" s="94"/>
+      <c r="G254" s="95"/>
+      <c r="H254" s="95"/>
+      <c r="I254" s="95"/>
       <c r="J254" s="62" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="56" hidden="1">
-      <c r="A255" s="96"/>
-      <c r="B255" s="150" t="s">
+      <c r="A255" s="93"/>
+      <c r="B255" s="146" t="s">
         <v>579</v>
       </c>
-      <c r="C255" s="132"/>
-      <c r="D255" s="114"/>
-      <c r="E255" s="91" t="s">
+      <c r="C255" s="128"/>
+      <c r="D255" s="111"/>
+      <c r="E255" s="88" t="s">
         <v>577</v>
       </c>
-      <c r="F255" s="97"/>
-      <c r="G255" s="98"/>
-      <c r="H255" s="98"/>
-      <c r="I255" s="98"/>
+      <c r="F255" s="94"/>
+      <c r="G255" s="95"/>
+      <c r="H255" s="95"/>
+      <c r="I255" s="95"/>
       <c r="J255" s="62" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="56">
-      <c r="A256" s="96" t="s">
+      <c r="A256" s="93" t="s">
         <v>581</v>
       </c>
-      <c r="B256" s="150" t="s">
+      <c r="B256" s="146" t="s">
         <v>582</v>
       </c>
-      <c r="C256" s="153">
+      <c r="C256" s="149">
         <v>50</v>
       </c>
-      <c r="D256" s="114"/>
-      <c r="E256" s="80"/>
-      <c r="F256" s="97"/>
-      <c r="G256" s="98" t="s">
+      <c r="D256" s="111"/>
+      <c r="E256" s="77"/>
+      <c r="F256" s="94"/>
+      <c r="G256" s="95" t="s">
         <v>583</v>
       </c>
-      <c r="H256" s="99" t="s">
+      <c r="H256" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I256" s="99" t="s">
+      <c r="I256" s="96" t="s">
         <v>21</v>
       </c>
       <c r="J256" s="62" t="s">
@@ -9093,25 +9094,25 @@
       </c>
     </row>
     <row r="257" spans="1:10" ht="42">
-      <c r="A257" s="96" t="s">
+      <c r="A257" s="93" t="s">
         <v>581</v>
       </c>
-      <c r="B257" s="150" t="s">
+      <c r="B257" s="146" t="s">
         <v>585</v>
       </c>
-      <c r="C257" s="153">
+      <c r="C257" s="149">
         <v>150</v>
       </c>
-      <c r="D257" s="114"/>
-      <c r="E257" s="80"/>
-      <c r="F257" s="97"/>
-      <c r="G257" s="98" t="s">
+      <c r="D257" s="111"/>
+      <c r="E257" s="77"/>
+      <c r="F257" s="94"/>
+      <c r="G257" s="95" t="s">
         <v>583</v>
       </c>
-      <c r="H257" s="81" t="s">
+      <c r="H257" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="I257" s="99" t="s">
+      <c r="I257" s="96" t="s">
         <v>21</v>
       </c>
       <c r="J257" s="62" t="s">
@@ -9119,57 +9120,57 @@
       </c>
     </row>
     <row r="258" spans="1:10" ht="42" hidden="1">
-      <c r="A258" s="96"/>
-      <c r="B258" s="150" t="s">
+      <c r="A258" s="93"/>
+      <c r="B258" s="146" t="s">
         <v>587</v>
       </c>
-      <c r="C258" s="132"/>
-      <c r="D258" s="114"/>
-      <c r="E258" s="91"/>
-      <c r="F258" s="97"/>
-      <c r="G258" s="98"/>
-      <c r="H258" s="98"/>
-      <c r="I258" s="98"/>
+      <c r="C258" s="128"/>
+      <c r="D258" s="111"/>
+      <c r="E258" s="88"/>
+      <c r="F258" s="94"/>
+      <c r="G258" s="95"/>
+      <c r="H258" s="95"/>
+      <c r="I258" s="95"/>
       <c r="J258" s="62" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="42" hidden="1">
-      <c r="A259" s="96"/>
-      <c r="B259" s="150" t="s">
+      <c r="A259" s="93"/>
+      <c r="B259" s="146" t="s">
         <v>589</v>
       </c>
-      <c r="C259" s="132"/>
-      <c r="D259" s="114"/>
-      <c r="E259" s="91"/>
-      <c r="F259" s="97"/>
-      <c r="G259" s="98"/>
-      <c r="H259" s="98"/>
-      <c r="I259" s="98"/>
+      <c r="C259" s="128"/>
+      <c r="D259" s="111"/>
+      <c r="E259" s="88"/>
+      <c r="F259" s="94"/>
+      <c r="G259" s="95"/>
+      <c r="H259" s="95"/>
+      <c r="I259" s="95"/>
       <c r="J259" s="62" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="28">
-      <c r="A260" s="96" t="s">
+      <c r="A260" s="93" t="s">
         <v>581</v>
       </c>
-      <c r="B260" s="150" t="s">
+      <c r="B260" s="146" t="s">
         <v>591</v>
       </c>
-      <c r="C260" s="153">
+      <c r="C260" s="149">
         <v>500</v>
       </c>
-      <c r="D260" s="114"/>
-      <c r="E260" s="80"/>
-      <c r="F260" s="97"/>
-      <c r="G260" s="98" t="s">
+      <c r="D260" s="111"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="94"/>
+      <c r="G260" s="95" t="s">
         <v>583</v>
       </c>
-      <c r="H260" s="99" t="s">
+      <c r="H260" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="I260" s="99" t="s">
+      <c r="I260" s="96" t="s">
         <v>21</v>
       </c>
       <c r="J260" s="62" t="s">
@@ -9177,60 +9178,60 @@
       </c>
     </row>
     <row r="261" spans="1:10" ht="42" hidden="1">
-      <c r="A261" s="96"/>
-      <c r="B261" s="150" t="s">
+      <c r="A261" s="93"/>
+      <c r="B261" s="146" t="s">
         <v>593</v>
       </c>
-      <c r="C261" s="132"/>
-      <c r="D261" s="114"/>
-      <c r="E261" s="91"/>
-      <c r="F261" s="97"/>
-      <c r="G261" s="98"/>
-      <c r="H261" s="98"/>
-      <c r="I261" s="98"/>
+      <c r="C261" s="128"/>
+      <c r="D261" s="111"/>
+      <c r="E261" s="88"/>
+      <c r="F261" s="94"/>
+      <c r="G261" s="95"/>
+      <c r="H261" s="95"/>
+      <c r="I261" s="95"/>
       <c r="J261" s="62" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="42" hidden="1">
-      <c r="A262" s="96"/>
-      <c r="B262" s="150" t="s">
+      <c r="A262" s="93"/>
+      <c r="B262" s="146" t="s">
         <v>595</v>
       </c>
-      <c r="C262" s="132"/>
-      <c r="D262" s="114"/>
-      <c r="E262" s="91"/>
-      <c r="F262" s="97"/>
-      <c r="G262" s="98"/>
-      <c r="H262" s="98"/>
-      <c r="I262" s="98"/>
+      <c r="C262" s="128"/>
+      <c r="D262" s="111"/>
+      <c r="E262" s="88"/>
+      <c r="F262" s="94"/>
+      <c r="G262" s="95"/>
+      <c r="H262" s="95"/>
+      <c r="I262" s="95"/>
       <c r="J262" s="62" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="42" hidden="1">
-      <c r="A263" s="96"/>
-      <c r="B263" s="150" t="s">
+      <c r="A263" s="93"/>
+      <c r="B263" s="146" t="s">
         <v>597</v>
       </c>
-      <c r="C263" s="132"/>
-      <c r="D263" s="114"/>
-      <c r="E263" s="91"/>
-      <c r="F263" s="97"/>
-      <c r="G263" s="98"/>
-      <c r="H263" s="98"/>
-      <c r="I263" s="98"/>
+      <c r="C263" s="128"/>
+      <c r="D263" s="111"/>
+      <c r="E263" s="88"/>
+      <c r="F263" s="94"/>
+      <c r="G263" s="95"/>
+      <c r="H263" s="95"/>
+      <c r="I263" s="95"/>
       <c r="J263" s="62" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="14" hidden="1">
       <c r="A264" s="29"/>
-      <c r="B264" s="140" t="s">
+      <c r="B264" s="136" t="s">
         <v>599</v>
       </c>
-      <c r="C264" s="117"/>
-      <c r="D264" s="113"/>
+      <c r="C264" s="113"/>
+      <c r="D264" s="110"/>
       <c r="E264" s="59"/>
       <c r="F264" s="59"/>
       <c r="G264" s="59"/>
@@ -9242,11 +9243,11 @@
     </row>
     <row r="265" spans="1:10" ht="70" hidden="1">
       <c r="A265" s="62"/>
-      <c r="B265" s="149" t="s">
+      <c r="B265" s="145" t="s">
         <v>601</v>
       </c>
-      <c r="C265" s="131"/>
-      <c r="D265" s="114"/>
+      <c r="C265" s="127"/>
+      <c r="D265" s="111"/>
       <c r="E265" s="69" t="s">
         <v>602</v>
       </c>
@@ -9266,11 +9267,11 @@
     </row>
     <row r="266" spans="1:10" ht="70" hidden="1">
       <c r="A266" s="62"/>
-      <c r="B266" s="149" t="s">
+      <c r="B266" s="145" t="s">
         <v>604</v>
       </c>
-      <c r="C266" s="131"/>
-      <c r="D266" s="114"/>
+      <c r="C266" s="127"/>
+      <c r="D266" s="111"/>
       <c r="E266" s="69" t="s">
         <v>602</v>
       </c>
@@ -9288,27 +9289,27 @@
         <v>605</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="105" customFormat="1" ht="56" hidden="1">
-      <c r="A267" s="100"/>
-      <c r="B267" s="151" t="s">
+    <row r="267" spans="1:10" s="102" customFormat="1" ht="56" hidden="1">
+      <c r="A267" s="97"/>
+      <c r="B267" s="147" t="s">
         <v>606</v>
       </c>
-      <c r="C267" s="133"/>
-      <c r="D267" s="114"/>
-      <c r="E267" s="101" t="s">
+      <c r="C267" s="129"/>
+      <c r="D267" s="111"/>
+      <c r="E267" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="F267" s="102"/>
-      <c r="G267" s="103" t="s">
+      <c r="F267" s="99"/>
+      <c r="G267" s="100" t="s">
         <v>583</v>
       </c>
-      <c r="H267" s="104" t="s">
+      <c r="H267" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I267" s="104" t="s">
+      <c r="I267" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="J267" s="100" t="s">
+      <c r="J267" s="97" t="s">
         <v>607</v>
       </c>
     </row>
